--- a/public/assets-new/Sample_Asset_French.xlsx
+++ b/public/assets-new/Sample_Asset_French.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3cod.sharepoint.com/sites/Consentio/Shared Documents/General/Consentio IT &amp; Dev/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\app_consentio_docker\src\app_d3grc\assets-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1947311F-C77D-436D-8326-977A081731BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4FC077-E245-42B5-9354-9B820181E0CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Value" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -951,7 +950,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1395,10 +1394,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -3771,55 +3770,55 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5284175-E27A-4215-9E65-D826437933B8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C411DD2-A710-41BC-8B6E-A2F912F43C6E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$D$2:$D$203</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1847FA3C-6C54-4545-A2F8-9D8403FB3427}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$E$2:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD47315E-608D-4776-A176-F9CA62083424}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$F$2:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{116491A1-AE19-405B-B197-069533073E63}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$G$2:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A028C6FA-B9FB-4002-A31C-E5682DB773B6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$I$2:$I$13</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB15495E-50D2-4A69-BCD9-E6696919D7F3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$H$2:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92F5E6A2-929B-453E-BFCD-1A55BE578641}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2929D31-D057-484F-9144-E262C9C87193}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Value!$J$2:$J$13</xm:f>
           </x14:formula1>
@@ -3832,10 +3831,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0BD2AD-1A27-4FC8-8178-7FB5F1121617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5108,14 +5107,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="de64d92b-4328-4b32-9550-e2f09f3419ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5348,21 +5345,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="de64d92b-4328-4b32-9550-e2f09f3419ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B4A77-B751-47D6-B659-274364956C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D657BA3A-32B5-4F59-8EF6-809486126D3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3"/>
-    <ds:schemaRef ds:uri="de64d92b-4328-4b32-9550-e2f09f3419ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5387,9 +5383,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D657BA3A-32B5-4F59-8EF6-809486126D3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B4A77-B751-47D6-B659-274364956C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3"/>
+    <ds:schemaRef ds:uri="de64d92b-4328-4b32-9550-e2f09f3419ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/assets-new/Sample_Asset_French.xlsx
+++ b/public/assets-new/Sample_Asset_French.xlsx
@@ -1151,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,7 +1186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,9 +1397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3835,7 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,12 +5107,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="de64d92b-4328-4b32-9550-e2f09f3419ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5345,20 +5347,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="de64d92b-4328-4b32-9550-e2f09f3419ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D657BA3A-32B5-4F59-8EF6-809486126D3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B4A77-B751-47D6-B659-274364956C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="de64d92b-4328-4b32-9550-e2f09f3419ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5383,12 +5392,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B4A77-B751-47D6-B659-274364956C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D657BA3A-32B5-4F59-8EF6-809486126D3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7fe41b35-81d4-4e31-bf5f-318b49e8a5d3"/>
-    <ds:schemaRef ds:uri="de64d92b-4328-4b32-9550-e2f09f3419ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>